--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_9_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_9_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.961703002710294, 50.03650120221424]</t>
+          <t>[49.96168362564926, 50.036520579275276]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.96322213018698, 50.01593271590397]</t>
+          <t>[49.963202153099765, 50.015952692991185]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.97843811133832, 50.116086047354926]</t>
+          <t>[49.97892874539043, 50.11559541330282]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.956454887192876, 50.03629533904653]</t>
+          <t>[49.95639116955363, 50.036359056685775]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_9_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_9_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.96168362564926, 50.036520579275276]</t>
+          <t>[49.9616764738894, 50.036527731035136]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.963202153099765, 50.015952692991185]</t>
+          <t>[49.96317398210145, 50.0159808639895]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.97892874539043, 50.11559541330282]</t>
+          <t>[49.980339129295636, 50.11418502939761]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95639116955363, 50.036359056685775]</t>
+          <t>[49.95654011179978, 50.036210114439626]</t>
         </is>
       </c>
       <c r="U3" t="n">
